--- a/extra/varnames/contraloria_variables.xlsx
+++ b/extra/varnames/contraloria_variables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -24,6 +24,39 @@
     <t>doc_name</t>
   </si>
   <si>
+    <t>titulo_asunto</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>entidad_auditada</t>
+  </si>
+  <si>
+    <t>monto_auditado</t>
+  </si>
+  <si>
+    <t>monto_examinado</t>
+  </si>
+  <si>
+    <t>monto_objeto_servicio</t>
+  </si>
+  <si>
+    <t>año_emision</t>
+  </si>
+  <si>
+    <t>unidad_emite</t>
+  </si>
+  <si>
+    <t>tipo_control</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>nom_apell</t>
+  </si>
+  <si>
     <t>civil</t>
   </si>
   <si>
@@ -39,61 +72,73 @@
     <t>adm_pas</t>
   </si>
   <si>
-    <t>año_emi</t>
-  </si>
-  <si>
-    <t>año_in</t>
+    <t>año_inicio</t>
   </si>
   <si>
     <t>año_fin</t>
   </si>
   <si>
-    <t>monto_auditado</t>
-  </si>
-  <si>
-    <t>monto_examinado</t>
-  </si>
-  <si>
-    <t>monto_objeto_servicio</t>
-  </si>
-  <si>
-    <t>dif</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>varlab</t>
   </si>
   <si>
-    <t>ubigeos_0_inei</t>
-  </si>
-  <si>
-    <t>(sum) civil</t>
-  </si>
-  <si>
-    <t>(sum) penal</t>
-  </si>
-  <si>
-    <t>(sum) admin</t>
-  </si>
-  <si>
-    <t>(sum) adm_ent</t>
-  </si>
-  <si>
-    <t>(sum) adm_pas</t>
-  </si>
-  <si>
-    <t>año de emisión del informe</t>
-  </si>
-  <si>
-    <t>año de inicio del evento delictivo</t>
-  </si>
-  <si>
-    <t>año  de fin del evento delictivo</t>
-  </si>
-  <si>
-    <t/>
+    <t>Ubigeo</t>
+  </si>
+  <si>
+    <t>Número del informe</t>
+  </si>
+  <si>
+    <t>Título del informe</t>
+  </si>
+  <si>
+    <t>Objetivo de la auditoría</t>
+  </si>
+  <si>
+    <t>Entidad auditada</t>
+  </si>
+  <si>
+    <t>Monto auditado</t>
+  </si>
+  <si>
+    <t>Monto examinado</t>
+  </si>
+  <si>
+    <t>Monto objeto del servicio (por corresponder)</t>
+  </si>
+  <si>
+    <t>Año de emisión del informe</t>
+  </si>
+  <si>
+    <t>Unidad orgánica que emite el informe</t>
+  </si>
+  <si>
+    <t>Tipo de Control registrado en el resumen del informe</t>
+  </si>
+  <si>
+    <t>Documento Nacional de Identidad (DNI)</t>
+  </si>
+  <si>
+    <t>Personas identificadas en los hechos</t>
+  </si>
+  <si>
+    <t>Número de personas con responsabilidad civil</t>
+  </si>
+  <si>
+    <t>Número de personas con responsabilidad penal</t>
+  </si>
+  <si>
+    <t>Número de personas con responsabilidad administrativa</t>
+  </si>
+  <si>
+    <t>Número de personas con responsabilidad administrativa  (Ent)</t>
+  </si>
+  <si>
+    <t>Número de personas con responsabilidad administrativa  (Pas)</t>
+  </si>
+  <si>
+    <t>Año inicial del evento delictivo</t>
+  </si>
+  <si>
+    <t>Año final del evento delictivo</t>
   </si>
 </sst>
 </file>
@@ -137,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -145,7 +190,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -153,7 +198,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -161,7 +206,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -169,7 +214,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -177,7 +222,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -185,7 +230,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -193,7 +238,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -201,7 +246,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -209,7 +254,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -217,7 +262,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -225,7 +270,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -233,7 +278,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -241,7 +286,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -249,7 +294,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -257,7 +302,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -265,7 +310,47 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/extra/varnames/contraloria_variables.xlsx
+++ b/extra/varnames/contraloria_variables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -24,13 +24,28 @@
     <t>doc_name</t>
   </si>
   <si>
-    <t>titulo_asunto</t>
-  </si>
-  <si>
-    <t>objetivo</t>
-  </si>
-  <si>
-    <t>entidad_auditada</t>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>penal</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>adm_ent</t>
+  </si>
+  <si>
+    <t>adm_pas</t>
+  </si>
+  <si>
+    <t>año_emi</t>
+  </si>
+  <si>
+    <t>año_in</t>
+  </si>
+  <si>
+    <t>año_fin</t>
   </si>
   <si>
     <t>monto_auditado</t>
@@ -42,103 +57,43 @@
     <t>monto_objeto_servicio</t>
   </si>
   <si>
-    <t>año_emision</t>
-  </si>
-  <si>
-    <t>unidad_emite</t>
-  </si>
-  <si>
-    <t>tipo_control</t>
-  </si>
-  <si>
-    <t>dni</t>
-  </si>
-  <si>
-    <t>nom_apell</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>penal</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>adm_ent</t>
-  </si>
-  <si>
-    <t>adm_pas</t>
-  </si>
-  <si>
-    <t>año_inicio</t>
-  </si>
-  <si>
-    <t>año_fin</t>
+    <t>dif</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>varlab</t>
   </si>
   <si>
-    <t>Ubigeo</t>
-  </si>
-  <si>
-    <t>Número del informe</t>
-  </si>
-  <si>
-    <t>Título del informe</t>
-  </si>
-  <si>
-    <t>Objetivo de la auditoría</t>
-  </si>
-  <si>
-    <t>Entidad auditada</t>
-  </si>
-  <si>
-    <t>Monto auditado</t>
-  </si>
-  <si>
-    <t>Monto examinado</t>
-  </si>
-  <si>
-    <t>Monto objeto del servicio (por corresponder)</t>
-  </si>
-  <si>
-    <t>Año de emisión del informe</t>
-  </si>
-  <si>
-    <t>Unidad orgánica que emite el informe</t>
-  </si>
-  <si>
-    <t>Tipo de Control registrado en el resumen del informe</t>
-  </si>
-  <si>
-    <t>Documento Nacional de Identidad (DNI)</t>
-  </si>
-  <si>
-    <t>Personas identificadas en los hechos</t>
-  </si>
-  <si>
-    <t>Número de personas con responsabilidad civil</t>
-  </si>
-  <si>
-    <t>Número de personas con responsabilidad penal</t>
-  </si>
-  <si>
-    <t>Número de personas con responsabilidad administrativa</t>
-  </si>
-  <si>
-    <t>Número de personas con responsabilidad administrativa  (Ent)</t>
-  </si>
-  <si>
-    <t>Número de personas con responsabilidad administrativa  (Pas)</t>
-  </si>
-  <si>
-    <t>Año inicial del evento delictivo</t>
-  </si>
-  <si>
-    <t>Año final del evento delictivo</t>
+    <t>ubigeos_0_inei</t>
+  </si>
+  <si>
+    <t>(sum) civil</t>
+  </si>
+  <si>
+    <t>(sum) penal</t>
+  </si>
+  <si>
+    <t>(sum) admin</t>
+  </si>
+  <si>
+    <t>(sum) adm_ent</t>
+  </si>
+  <si>
+    <t>(sum) adm_pas</t>
+  </si>
+  <si>
+    <t>año de emisión del informe</t>
+  </si>
+  <si>
+    <t>año de inicio del evento delictivo</t>
+  </si>
+  <si>
+    <t>año  de fin del evento delictivo</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -182,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -190,7 +145,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -198,7 +153,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -206,7 +161,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -214,7 +169,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -222,7 +177,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -230,7 +185,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -238,7 +193,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -246,7 +201,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -254,7 +209,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -262,7 +217,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -270,7 +225,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +233,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -286,7 +241,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -294,7 +249,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -302,7 +257,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -310,47 +265,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
